--- a/HMM Parameter Variation.xlsx
+++ b/HMM Parameter Variation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Last Words" sheetId="1" r:id="rId1"/>
+    <sheet name="Reversed Line" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
   <si>
     <t>Last words HMM</t>
   </si>
@@ -98,9 +99,6 @@
     <t>50 states, 50 iterations</t>
   </si>
   <si>
-    <t>50 states, 250 iterations</t>
-  </si>
-  <si>
     <t>erred blood hide fade time disdain canopy</t>
   </si>
   <si>
@@ -111,13 +109,565 @@
   </si>
   <si>
     <t>it blood will impute same thee away</t>
+  </si>
+  <si>
+    <t>sadly dyed thee thee creature so pen</t>
+  </si>
+  <si>
+    <t>sight content thee shaken face blood herd</t>
+  </si>
+  <si>
+    <t>wind suppose wights old glass survey how</t>
+  </si>
+  <si>
+    <t>write own time away away awake thee</t>
+  </si>
+  <si>
+    <t>maintain day ow'st stand own part rose</t>
+  </si>
+  <si>
+    <t>know dead disdain rent catch might dumb</t>
+  </si>
+  <si>
+    <t>all write bed knit accident privilege fair</t>
+  </si>
+  <si>
+    <t>still well slow grief ornament upon impute</t>
+  </si>
+  <si>
+    <t>lies knowing come be still hue white</t>
+  </si>
+  <si>
+    <t>bell deeds brand translate old fly got</t>
+  </si>
+  <si>
+    <t>verse show love lust fair day write</t>
+  </si>
+  <si>
+    <t>force graces up veins see way eyes</t>
+  </si>
+  <si>
+    <t>leap eloquence on sort advance fire more</t>
+  </si>
+  <si>
+    <t>time hate argument men made find sounds</t>
+  </si>
+  <si>
+    <t>advocate defy hue brow best shaken come</t>
+  </si>
+  <si>
+    <t>east abuse end eye away catch betray</t>
+  </si>
+  <si>
+    <t>moan cheeks fade hide grow'st arise respect</t>
+  </si>
+  <si>
+    <t>bear clay spent hand fire hold woe</t>
+  </si>
+  <si>
+    <t>night argument words twain painted kill now</t>
+  </si>
+  <si>
+    <t>dead graces waste find look story grace</t>
+  </si>
+  <si>
+    <t>50 states, 200 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 200 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 1000 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 5000 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 50 iterations</t>
+  </si>
+  <si>
+    <t>skill breast change granting belied age love</t>
+  </si>
+  <si>
+    <t>words belied will soul decay can thee</t>
+  </si>
+  <si>
+    <t>best granting face latch infection minds mad</t>
+  </si>
+  <si>
+    <t>fear away sun now receivest sorrow thee</t>
+  </si>
+  <si>
+    <t>unbred seeing is verse skill unrest tyranny</t>
+  </si>
+  <si>
+    <t>ordering have fiend writ glass tongue store</t>
+  </si>
+  <si>
+    <t>thee tyranny best fight chase impiety thee</t>
+  </si>
+  <si>
+    <t>dimmed call ye her life scope straight</t>
+  </si>
+  <si>
+    <t>thee me lie sight hours bear sway</t>
+  </si>
+  <si>
+    <t>soul approve lie you hearts mud o'er-read</t>
+  </si>
+  <si>
+    <t>brow expense got show kill poverty give</t>
+  </si>
+  <si>
+    <t>wilful-slow bail live wights care room best</t>
+  </si>
+  <si>
+    <t>best beguiled make wind force flattery within</t>
+  </si>
+  <si>
+    <t>sight erred change kill gain thee rolling</t>
+  </si>
+  <si>
+    <t>leave muse verse blind cry hand pen</t>
+  </si>
+  <si>
+    <t>age abide press thee black store delighted</t>
+  </si>
+  <si>
+    <t>bright true writ sight conspire disdain ordering</t>
+  </si>
+  <si>
+    <t>sight moving mad sight receivest lie deserts</t>
+  </si>
+  <si>
+    <t>engrossed expense room live mine passion heaven</t>
+  </si>
+  <si>
+    <t>cheeks so wit hate noon hope love</t>
+  </si>
+  <si>
+    <t>2 states, 50 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 200 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 5000 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 1000 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 50 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 200 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 1000 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 5000 iterations</t>
+  </si>
+  <si>
+    <t>part devised how black true sight give</t>
+  </si>
+  <si>
+    <t>invent ye none redeem swear sight thee</t>
+  </si>
+  <si>
+    <t>eyes face are feast heart so live</t>
+  </si>
+  <si>
+    <t>art end me find find brow memory</t>
+  </si>
+  <si>
+    <t>one strive take black write ye me</t>
+  </si>
+  <si>
+    <t>gain defect perceived days write trim seem</t>
+  </si>
+  <si>
+    <t>fleet'st you sit same increase wrong thee</t>
+  </si>
+  <si>
+    <t>aid eye constancy way time outworn prove</t>
+  </si>
+  <si>
+    <t>young change be mine spacious me flatter</t>
+  </si>
+  <si>
+    <t>night friend day tongue mind chide change</t>
+  </si>
+  <si>
+    <t>eyes delighted bell grace youth know prove</t>
+  </si>
+  <si>
+    <t>ye art repair seen tears change cheer</t>
+  </si>
+  <si>
+    <t>age tear king tongue me woe forth</t>
+  </si>
+  <si>
+    <t>ear noon key gems me fulness ground</t>
+  </si>
+  <si>
+    <t>passion die away end knows gain time</t>
+  </si>
+  <si>
+    <t>date sight this devised straight thee new</t>
+  </si>
+  <si>
+    <t>graces done me warmed amends seen aid</t>
+  </si>
+  <si>
+    <t>invent awake resemble hue pleasure line subscribes</t>
+  </si>
+  <si>
+    <t>expense muse loan unbred clay misplaced breast</t>
+  </si>
+  <si>
+    <t>spend o'er day fiend eyes make tell</t>
+  </si>
+  <si>
+    <t>better rose got me shame conspire place</t>
+  </si>
+  <si>
+    <t>misplaced foiled strive tears erred drink praise</t>
+  </si>
+  <si>
+    <t>thee muse ill love born spring new</t>
+  </si>
+  <si>
+    <t>old heretic commits grief sing doubt herd</t>
+  </si>
+  <si>
+    <t>behind days hate spent distilled anon plot</t>
+  </si>
+  <si>
+    <t>mend bail mind within me ear mind</t>
+  </si>
+  <si>
+    <t>play'st hang gone fair dearer tend thee</t>
+  </si>
+  <si>
+    <t>deeds be thee most line mind herd</t>
+  </si>
+  <si>
+    <t>heart year age speed one dumb time</t>
+  </si>
+  <si>
+    <t>age night room tired increase here blot</t>
+  </si>
+  <si>
+    <t>bed chide veins bred eye argument increase</t>
+  </si>
+  <si>
+    <t>twain ranged mind eyes lie upon age</t>
+  </si>
+  <si>
+    <t>resemble hits contain content tell despising grief</t>
+  </si>
+  <si>
+    <t>prime store upon tired behold prognosticate will</t>
+  </si>
+  <si>
+    <t>take prophecies seem prognosticate intelligence breast knife</t>
+  </si>
+  <si>
+    <t>night enmity strive say monument seen state</t>
+  </si>
+  <si>
+    <t>Reversed Line HMM</t>
+  </si>
+  <si>
+    <t>10 states, 10 iterations</t>
+  </si>
+  <si>
+    <t>10 states, 100 iterations</t>
+  </si>
+  <si>
+    <t>5 states, 10 iterations</t>
+  </si>
+  <si>
+    <t>5 states, 100 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 10 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 100 iterations</t>
+  </si>
+  <si>
+    <t>3 states, 250 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 10 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 100 iterations</t>
+  </si>
+  <si>
+    <t>2 states, 250 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 10 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 590 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 100 iterations</t>
+  </si>
+  <si>
+    <t>1 state, 250 iterations</t>
+  </si>
+  <si>
+    <t>Live thou not to knowledge this see should men,</t>
+  </si>
+  <si>
+    <t>Hours new to love's thou with summer beguiled,</t>
+  </si>
+  <si>
+    <t>Perfection tenants for philomel then,</t>
+  </si>
+  <si>
+    <t>Our erred large slight black but do which who child,</t>
+  </si>
+  <si>
+    <t>25 states, 20 iterations</t>
+  </si>
+  <si>
+    <t>50 states, 20 iterations</t>
+  </si>
+  <si>
+    <t>50 states, 5 iterations</t>
+  </si>
+  <si>
+    <t>25 states, 5 iterations</t>
+  </si>
+  <si>
+    <t>Faster like o'er sin lend to was it men,</t>
+  </si>
+  <si>
+    <t>My own delight conquest no not beguiled,</t>
+  </si>
+  <si>
+    <t>I if I not name self shall to death then,</t>
+  </si>
+  <si>
+    <t>I pitied give to up debtor of child,</t>
+  </si>
+  <si>
+    <t>True thine old but it more again the men,</t>
+  </si>
+  <si>
+    <t>They very O against yet in beguiled,</t>
+  </si>
+  <si>
+    <t>As the nature and you do heaven then,</t>
+  </si>
+  <si>
+    <t>Growing year thy again nothing my child,</t>
+  </si>
+  <si>
+    <t>Of for love world see grows thee that they men,</t>
+  </si>
+  <si>
+    <t>Excellence day for of before beguiled,</t>
+  </si>
+  <si>
+    <t>Fortune's before to age with I of then,</t>
+  </si>
+  <si>
+    <t>Stop yet self in my it dare hours child,</t>
+  </si>
+  <si>
+    <t>If thy nothing me cast to wrinkles men,</t>
+  </si>
+  <si>
+    <t>Afloat their place shows no lost my beguiled,</t>
+  </si>
+  <si>
+    <t>Till as fulfil give you grew bear fair then,</t>
+  </si>
+  <si>
+    <t>Buried fall so but words style dead rough child,</t>
+  </si>
+  <si>
+    <t>Return year should by and our will men,</t>
+  </si>
+  <si>
+    <t>Hasten writ dateless the far dost beguiled,</t>
+  </si>
+  <si>
+    <t>Be summer's be that took gives but free then,</t>
+  </si>
+  <si>
+    <t>Not turn thoughts left rich wombs spur men your child,</t>
+  </si>
+  <si>
+    <t>Cold sad I in to publish not in men,</t>
+  </si>
+  <si>
+    <t>Every alack vanishing O beguiled,</t>
+  </si>
+  <si>
+    <t>See me bett'ring and death perpetual then,</t>
+  </si>
+  <si>
+    <t>Longer unto blood belongs is I child,</t>
+  </si>
+  <si>
+    <t>Desire in and concealed this be please men,</t>
+  </si>
+  <si>
+    <t>Do thee not offenders shade kind beguiled,</t>
+  </si>
+  <si>
+    <t>Thee he solemn you your than thee thee then,</t>
+  </si>
+  <si>
+    <t>Change of of their although the find that child,</t>
+  </si>
+  <si>
+    <t>Thy thou can to followed if nor their men,</t>
+  </si>
+  <si>
+    <t>Cries audit present I me cars beguiled,</t>
+  </si>
+  <si>
+    <t>Than love fixed tells boast thou disdain gain then,</t>
+  </si>
+  <si>
+    <t>Mine thou guest thoughts gives journey with my child,</t>
+  </si>
+  <si>
+    <t>Ceremony in seemly crawls shall men,</t>
+  </si>
+  <si>
+    <t>For stage to pattern in I on beguiled,</t>
+  </si>
+  <si>
+    <t>Eye rich my when is gentle O no then,</t>
+  </si>
+  <si>
+    <t>Her imitate thy my be will by child,</t>
+  </si>
+  <si>
+    <t>My in and for leave half her for since men,</t>
+  </si>
+  <si>
+    <t>Have now that may lifts thee show thee beguiled,</t>
+  </si>
+  <si>
+    <t>Die from smoke do might love hers so took then,</t>
+  </si>
+  <si>
+    <t>But as even that much to or seems child,</t>
+  </si>
+  <si>
+    <t>Hatred thou out for before as a men,</t>
+  </si>
+  <si>
+    <t>Save there too faults living set leave beguiled,</t>
+  </si>
+  <si>
+    <t>Blots my vulgar self holy be in then,</t>
+  </si>
+  <si>
+    <t>Shall when thus to-morrow fierce I with child,</t>
+  </si>
+  <si>
+    <t>The yet manners times princes shaken men,</t>
+  </si>
+  <si>
+    <t>Root mother's lie heart thine child to beguiled,</t>
+  </si>
+  <si>
+    <t>The world it with that their so this old then,</t>
+  </si>
+  <si>
+    <t>Of my as rest wood and silent back child,</t>
+  </si>
+  <si>
+    <t>Forsworn who it essays spites a and men,</t>
+  </si>
+  <si>
+    <t>That for lest not but store remain beguiled,</t>
+  </si>
+  <si>
+    <t>My whilst minded when was impart me then,</t>
+  </si>
+  <si>
+    <t>Of is within deceived sin own child,</t>
+  </si>
+  <si>
+    <t>Pilgrimage marvel kept held heavy men,</t>
+  </si>
+  <si>
+    <t>One your 'scaped change all him the lame beguiled,</t>
+  </si>
+  <si>
+    <t>Be pride me tell sacred 'tis early then,</t>
+  </si>
+  <si>
+    <t>Art in or were is here dead grace can child,</t>
+  </si>
+  <si>
+    <t>Thoughts my doth age and woman who west men,</t>
+  </si>
+  <si>
+    <t>Lack more this mad most it thee is beguiled,</t>
+  </si>
+  <si>
+    <t>Not love it more him what wound shown them then,</t>
+  </si>
+  <si>
+    <t>Of her so words torment evident child,</t>
+  </si>
+  <si>
+    <t>There sums these it the to it thou full men,</t>
+  </si>
+  <si>
+    <t>Thy in where old fresh did for each beguiled,</t>
+  </si>
+  <si>
+    <t>When public thus of courses and death then,</t>
+  </si>
+  <si>
+    <t>Ensconce constant those witness anger child,</t>
+  </si>
+  <si>
+    <t>Giving madness a self of into men,</t>
+  </si>
+  <si>
+    <t>Brand my grace self-killed do beauty's beguiled,</t>
+  </si>
+  <si>
+    <t>Creation till or become my would then,</t>
+  </si>
+  <si>
+    <t>One that fever but drinks retention child,</t>
+  </si>
+  <si>
+    <t>Is thine thy would days before have the men,</t>
+  </si>
+  <si>
+    <t>Twice you on I borrowed is one beguiled,</t>
+  </si>
+  <si>
+    <t>And suspect in be thou lend which he then,</t>
+  </si>
+  <si>
+    <t>Thy the then lips dear my her drawn be child,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +702,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -181,6 +737,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,18 +1027,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,37 +1127,69 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -603,94 +1201,651 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>48</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>